--- a/public/data/non_teaching_senior_members.xlsx
+++ b/public/data/non_teaching_senior_members.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="846">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">DEPARTMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Member</t>
   </si>
   <si>
     <t xml:space="preserve">Dr.</t>
@@ -2732,13 +2735,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q143"/>
+  <dimension ref="A1:R143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D116" activeCellId="0" sqref="D116"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P58" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R2:R143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.08"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
@@ -2803,22 +2806,25 @@
       <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>25050</v>
@@ -2830,30 +2836,33 @@
         <v>244369485</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>24263</v>
@@ -2868,39 +2877,42 @@
         <v>507080922</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>27161</v>
@@ -2912,27 +2924,30 @@
         <v>246563951</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>26460</v>
@@ -2944,37 +2959,40 @@
         <v>208153746</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>27806</v>
@@ -2983,7 +3001,7 @@
         <v>57725</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>243339813</v>
@@ -2992,34 +3010,37 @@
         <v>206301987</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>28225</v>
@@ -3028,42 +3049,45 @@
         <v>1201480</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>24795</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>205272230</v>
@@ -3072,75 +3096,81 @@
         <v>243035652</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>29394</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>23981</v>
@@ -3149,77 +3179,83 @@
         <v>756059</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>25767</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>243547371</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>23367</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>277408662</v>
@@ -3228,90 +3264,96 @@
         <v>509951484</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>25710</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>209222400</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>23141</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>244474662</v>
@@ -3320,40 +3362,43 @@
         <v>202977882</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>25827</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>244650250</v>
@@ -3362,134 +3407,143 @@
         <v>202995514</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>26681</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>244231908</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>22828</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>244387805</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>24475</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>244871664</v>
@@ -3498,82 +3552,88 @@
         <v>264871664</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>28962</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>246495927</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>27666</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>243065314</v>
@@ -3582,43 +3642,46 @@
         <v>208181316</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>25865</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>201920613</v>
@@ -3627,43 +3690,46 @@
         <v>245654872</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>23340</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>207412497</v>
@@ -3672,46 +3738,49 @@
         <v>262412497</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>27584</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>266834182</v>
@@ -3720,216 +3789,231 @@
         <v>552985289</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>27180</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>243584755</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>25449</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>246145537</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>27385</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>266191948</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>26641</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>244299676</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>29615</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>244889288</v>
@@ -3938,42 +4022,45 @@
         <v>201647994</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>30770</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>242802778</v>
@@ -3982,42 +4069,45 @@
         <v>207806443</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>30085</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>207865959</v>
@@ -4026,88 +4116,94 @@
         <v>557718931</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>28476</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>249740393</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>28960</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>208907140</v>
@@ -4116,82 +4212,88 @@
         <v>244475972</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>30845</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>243039730</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>22892</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>207357106</v>
@@ -4200,48 +4302,51 @@
         <v>244786286</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>24143</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>277074885</v>
@@ -4250,87 +4355,93 @@
         <v>248235800</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>28924</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>205130808</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>30531</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>208278338</v>
@@ -4339,45 +4450,48 @@
         <v>547048596</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>28979</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>249397624</v>
@@ -4386,42 +4500,45 @@
         <v>209503839</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q38" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>24581</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>504401156</v>
@@ -4430,77 +4547,83 @@
         <v>577401156</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>28371</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>244433578</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q40" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>27589</v>
@@ -4515,132 +4638,141 @@
         <v>265198080</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>27253</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>540749149</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q42" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>22930</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>244479182</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>25423</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>244978022</v>
@@ -4649,43 +4781,46 @@
         <v>208420810</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q44" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>27928</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>272515065</v>
@@ -4694,247 +4829,265 @@
         <v>506538410</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>27093</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>204651688</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q46" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>27780</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>208763969</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G48" s="1" t="n">
         <v>25745</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>500350958</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q48" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>29131</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>208637786</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q49" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>30603</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>242141375</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>26828</v>
@@ -4943,7 +5096,7 @@
         <v>1373095</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>246470595</v>
@@ -4952,40 +5105,43 @@
         <v>505280373</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M51" s="2"/>
       <c r="O51" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>23903</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>244964441</v>
@@ -4994,40 +5150,43 @@
         <v>202491739</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q52" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>30429</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>244994822</v>
@@ -5036,166 +5195,178 @@
         <v>264994822</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q53" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G54" s="1" t="n">
         <v>23491</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>244445806</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q54" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>24261</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>556269131</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q55" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G56" s="1" t="n">
         <v>25172</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>244409315</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q56" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>28571</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>243079637</v>
@@ -5204,43 +5375,46 @@
         <v>205157524</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q57" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>27772</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>205334543</v>
@@ -5249,37 +5423,40 @@
         <v>574628612</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q58" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" s="1" t="n">
         <v>30974</v>
@@ -5291,40 +5468,43 @@
         <v>242715198</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q59" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G60" s="1" t="n">
         <v>30286</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J60" s="0" t="n">
         <v>242148991</v>
@@ -5333,127 +5513,136 @@
         <v>577540786</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q60" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" s="1" t="n">
         <v>27661</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J61" s="0" t="n">
         <v>243609516</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q61" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62" s="1" t="n">
         <v>31154</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J62" s="0" t="n">
         <v>244594426</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G63" s="1" t="n">
         <v>26956</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>205900341</v>
@@ -5462,43 +5651,46 @@
         <v>244720915</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G64" s="1" t="n">
         <v>25889</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>208527160</v>
@@ -5507,46 +5699,49 @@
         <v>245868824</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q64" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G65" s="1" t="n">
         <v>26812</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J65" s="0" t="n">
         <v>208156792</v>
@@ -5555,49 +5750,52 @@
         <v>246016931</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q65" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>30870</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>244723780</v>
@@ -5606,46 +5804,49 @@
         <v>262321123</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q66" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" s="1" t="n">
         <v>30195</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J67" s="0" t="n">
         <v>242709242</v>
@@ -5654,79 +5855,85 @@
         <v>549531000</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q67" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G68" s="1" t="n">
         <v>26803</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>244569445</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="R68" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" s="1" t="n">
         <v>29205</v>
@@ -5735,138 +5942,147 @@
         <v>901224</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G70" s="1" t="n">
         <v>30843</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>243334591</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G71" s="1" t="n">
         <v>28684</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J71" s="0" t="n">
         <v>244713101</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q71" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G72" s="1" t="n">
         <v>26443</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J72" s="0" t="n">
         <v>542526001</v>
@@ -5875,43 +6091,46 @@
         <v>208882392</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P72" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q72" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G73" s="1" t="n">
         <v>23914</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J73" s="0" t="n">
         <v>207563853</v>
@@ -5920,43 +6139,46 @@
         <v>570845466</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P73" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q73" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>30541</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J74" s="0" t="n">
         <v>244015827</v>
@@ -5965,36 +6187,39 @@
         <v>204641913</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O74" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q74" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G75" s="1" t="n">
         <v>24988</v>
@@ -6009,34 +6234,37 @@
         <v>557542021</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P75" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q75" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
+      </c>
+      <c r="R75" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G76" s="1" t="n">
         <v>32221</v>
@@ -6051,43 +6279,46 @@
         <v>208990713</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q76" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
+      </c>
+      <c r="R76" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G77" s="1" t="n">
         <v>27008</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J77" s="0" t="n">
         <v>247079448</v>
@@ -6096,43 +6327,46 @@
         <v>208248013</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P77" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q77" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
+      </c>
+      <c r="R77" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G78" s="1" t="n">
         <v>28838</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J78" s="0" t="n">
         <v>244486443</v>
@@ -6141,37 +6375,40 @@
         <v>209176642</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q78" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
+      </c>
+      <c r="R78" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G79" s="1" t="n">
         <v>28186</v>
@@ -6183,30 +6420,33 @@
         <v>244263773</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O79" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P79" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q79" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="R79" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G80" s="1" t="n">
         <v>28887</v>
@@ -6218,33 +6458,36 @@
         <v>244950242</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q80" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="R80" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>31034</v>
@@ -6258,30 +6501,33 @@
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P81" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q81" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
+      </c>
+      <c r="R81" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>745413</v>
@@ -6295,36 +6541,39 @@
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="O82" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P82" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q82" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
+      </c>
+      <c r="R82" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G83" s="1" t="n">
         <v>26869</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J83" s="0" t="n">
         <v>244739087</v>
@@ -6333,37 +6582,40 @@
         <v>206384629</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O83" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P83" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q83" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R83" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>31136</v>
@@ -6372,7 +6624,7 @@
         <v>751980</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J84" s="0" t="n">
         <v>208706892</v>
@@ -6381,37 +6633,40 @@
         <v>547524538</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O84" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q84" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R84" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G85" s="1" t="n">
         <v>30359</v>
@@ -6420,39 +6675,42 @@
         <v>755380</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O85" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P85" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q85" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R85" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G86" s="1" t="n">
         <v>26285</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J86" s="0" t="n">
         <v>244837832</v>
@@ -6461,120 +6719,129 @@
         <v>208530821</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q86" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R86" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>28715</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O87" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P87" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q87" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R87" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G88" s="1" t="n">
         <v>29403</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J88" s="0" t="n">
         <v>244933791</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O88" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P88" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q88" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R88" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G89" s="1" t="n">
         <v>28383</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="J89" s="0" t="n">
         <v>244534882</v>
@@ -6583,121 +6850,130 @@
         <v>207139515</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O89" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P89" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q89" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R89" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G90" s="1" t="n">
         <v>26497</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J90" s="0" t="n">
         <v>271238910</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O90" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P90" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q90" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R90" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G91" s="1" t="n">
         <v>28772</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="J91" s="0" t="n">
         <v>244973695</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O91" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P91" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q91" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R91" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" s="1" t="n">
         <v>26617</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="J92" s="0" t="n">
         <v>244160838</v>
@@ -6706,66 +6982,72 @@
         <v>203873277</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P92" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q92" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R92" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G93" s="1" t="n">
         <v>26856</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N93" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O93" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P93" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q93" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R93" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G94" s="1" t="n">
         <v>31960</v>
@@ -6774,43 +7056,46 @@
         <v>751986</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="J94" s="0" t="n">
         <v>246443762</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O94" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P94" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q94" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R94" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G95" s="1" t="n">
         <v>32331</v>
@@ -6819,40 +7104,43 @@
         <v>752386</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="J95" s="0" t="n">
         <v>242861701</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O95" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P95" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q95" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R95" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G96" s="1" t="n">
         <v>28280</v>
@@ -6867,48 +7155,51 @@
         <v>249015918</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O96" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="P96" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Q96" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
+      </c>
+      <c r="R96" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G97" s="1" t="n">
         <v>23154</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="J97" s="0" t="n">
         <v>243435065</v>
@@ -6917,46 +7208,49 @@
         <v>2064886830</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="O97" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="P97" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Q97" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
+      </c>
+      <c r="R97" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G98" s="1" t="n">
         <v>25182</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J98" s="0" t="n">
         <v>244206851</v>
@@ -6965,43 +7259,46 @@
         <v>208107770</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O98" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="P98" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="Q98" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
+      </c>
+      <c r="R98" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G99" s="1" t="n">
         <v>28426</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J99" s="0" t="n">
         <v>208192874</v>
@@ -7010,82 +7307,88 @@
         <v>548628235</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O99" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="P99" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Q99" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="R99" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" s="1" t="n">
         <v>30809</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="J100" s="0" t="n">
         <v>244436777</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="O100" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="P100" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Q100" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
+      </c>
+      <c r="R100" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G101" s="1" t="n">
         <v>30429</v>
@@ -7094,7 +7397,7 @@
         <v>766246</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J101" s="0" t="n">
         <v>243629758</v>
@@ -7103,82 +7406,88 @@
         <v>200833666</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O101" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="P101" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Q101" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
+      </c>
+      <c r="R101" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G102" s="1" t="n">
         <v>24519</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J102" s="0" t="n">
         <v>207630000</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O102" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P102" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q102" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="R102" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G103" s="1" t="n">
         <v>27428</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="J103" s="0" t="n">
         <v>261759482</v>
@@ -7187,200 +7496,215 @@
         <v>260850278</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O103" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P103" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q103" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="R103" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G104" s="1" t="n">
         <v>30615</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J104" s="0" t="n">
         <v>242828848</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O104" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P104" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q104" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="R104" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G105" s="1" t="n">
         <v>30447</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="J105" s="0" t="n">
         <v>243057788</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="O105" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P105" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q105" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="R105" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G106" s="1" t="n">
         <v>28859</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="J106" s="0" t="n">
         <v>243054364</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="N106" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O106" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P106" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="Q106" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="R106" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G107" s="1" t="n">
         <v>26116</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="J107" s="0" t="n">
         <v>24442381</v>
       </c>
       <c r="N107" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O107" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="P107" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q107" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="R107" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>1463395</v>
@@ -7391,27 +7715,30 @@
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="O108" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="P108" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q108" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="R108" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G109" s="1" t="n">
         <v>29880</v>
@@ -7420,43 +7747,46 @@
         <v>901113</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="J109" s="0" t="n">
         <v>243260402</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O109" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="P109" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Q109" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
+      </c>
+      <c r="R109" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G110" s="1" t="n">
         <v>28429</v>
@@ -7468,46 +7798,49 @@
         <v>262311077</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="O110" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="P110" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Q110" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
+      </c>
+      <c r="R110" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G111" s="1" t="n">
         <v>31652</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J111" s="0" t="n">
         <v>249213682</v>
@@ -7516,34 +7849,37 @@
         <v>209417502</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="O111" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="P111" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Q111" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
+      </c>
+      <c r="R111" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G112" s="1" t="n">
         <v>31053</v>
@@ -7552,7 +7888,7 @@
         <v>795759</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J112" s="0" t="n">
         <v>242868978</v>
@@ -7561,34 +7897,37 @@
         <v>243892791</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O112" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="P112" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Q112" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="R112" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G113" s="1" t="n">
         <v>28720</v>
@@ -7597,7 +7936,7 @@
         <v>1373092</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J113" s="0" t="n">
         <v>200156505</v>
@@ -7606,37 +7945,40 @@
         <v>245376904</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O113" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="P113" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q113" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
+      </c>
+      <c r="R113" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G114" s="1" t="n">
         <v>31567</v>
@@ -7645,46 +7987,49 @@
         <v>901187</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J114" s="0" t="n">
         <v>246830083</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="O114" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P114" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q114" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
+      </c>
+      <c r="R114" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G115" s="1" t="n">
         <v>29816</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="J115" s="0" t="n">
         <v>249079956</v>
@@ -7693,34 +8038,37 @@
         <v>509616182</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O115" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P115" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q115" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
+      </c>
+      <c r="R115" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G116" s="1" t="n">
         <v>29418</v>
@@ -7735,39 +8083,42 @@
         <v>243359587</v>
       </c>
       <c r="N116" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="O116" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P116" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q116" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
+      </c>
+      <c r="R116" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G117" s="1" t="n">
         <v>26332</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="J117" s="0" t="n">
         <v>244941415</v>
@@ -7776,45 +8127,48 @@
         <v>207078551</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N117" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O117" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P117" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q117" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
+      </c>
+      <c r="R117" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118" s="1" t="n">
         <v>30829</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="J118" s="0" t="n">
         <v>541157601</v>
@@ -7823,85 +8177,91 @@
         <v>503535659</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="O118" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P118" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q118" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
+      </c>
+      <c r="R118" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G119" s="1" t="n">
         <v>26775</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="J119" s="0" t="n">
         <v>203150464</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O119" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P119" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q119" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
+      </c>
+      <c r="R119" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G120" s="1" t="n">
         <v>30007</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="J120" s="0" t="n">
         <v>243586877</v>
@@ -7910,37 +8270,40 @@
         <v>200392227</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O120" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P120" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q120" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
+      </c>
+      <c r="R120" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G121" s="1" t="n">
         <v>32234</v>
@@ -7955,40 +8318,43 @@
         <v>204866228</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="O121" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P121" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q121" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="R121" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G122" s="1" t="n">
         <v>30132</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="J122" s="0" t="n">
         <v>274111356</v>
@@ -7997,43 +8363,46 @@
         <v>241547599</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O122" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P122" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q122" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
+      </c>
+      <c r="R122" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G123" s="1" t="n">
         <v>24793</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="J123" s="0" t="n">
         <v>207601903</v>
@@ -8042,37 +8411,40 @@
         <v>274903302</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O123" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P123" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q123" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
+      </c>
+      <c r="R123" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G124" s="1" t="n">
         <v>30838</v>
@@ -8081,43 +8453,46 @@
         <v>1380552</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="J124" s="0" t="n">
         <v>243326477</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="O124" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P124" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q124" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="R124" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H125" s="0" t="n">
         <v>1453056</v>
@@ -8128,30 +8503,33 @@
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="O125" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P125" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q125" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="R125" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H126" s="0" t="n">
         <v>287651</v>
@@ -8162,30 +8540,33 @@
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="O126" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P126" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q126" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
+      </c>
+      <c r="R126" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H127" s="0" t="n">
         <v>1455463</v>
@@ -8196,30 +8577,33 @@
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="O127" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P127" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q127" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="R127" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H128" s="0" t="n">
         <v>1458279</v>
@@ -8233,27 +8617,30 @@
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="O128" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P128" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q128" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="R128" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J129" s="0" t="n">
         <v>248106628</v>
@@ -8264,30 +8651,33 @@
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="O129" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="P129" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q129" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
+      </c>
+      <c r="R129" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H130" s="0" t="n">
         <v>856729</v>
@@ -8301,27 +8691,30 @@
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
       <c r="O130" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P130" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q130" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
+      </c>
+      <c r="R130" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H131" s="0" t="n">
         <v>1455010</v>
@@ -8335,30 +8728,33 @@
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
       <c r="O131" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P131" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q131" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
+      </c>
+      <c r="R131" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H132" s="0" t="n">
         <v>1463407</v>
@@ -8369,27 +8765,30 @@
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
       <c r="O132" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P132" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q132" s="0" t="s">
-        <v>812</v>
+        <v>813</v>
+      </c>
+      <c r="R132" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H133" s="0" t="n">
         <v>1292546</v>
@@ -8403,30 +8802,33 @@
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="O133" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P133" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q133" s="0" t="s">
-        <v>814</v>
+        <v>815</v>
+      </c>
+      <c r="R133" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H134" s="0" t="n">
         <v>1271285</v>
@@ -8437,27 +8839,30 @@
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="O134" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P134" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q134" s="0" t="s">
-        <v>817</v>
+        <v>818</v>
+      </c>
+      <c r="R134" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H135" s="0" t="n">
         <v>1250570</v>
@@ -8468,30 +8873,33 @@
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
       <c r="O135" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P135" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q135" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="R135" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H136" s="0" t="n">
         <v>1456062</v>
@@ -8502,39 +8910,42 @@
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="O136" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P136" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q136" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
+      </c>
+      <c r="R136" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G137" s="1" t="n">
         <v>30634</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="J137" s="0" t="n">
         <v>242571953</v>
@@ -8543,118 +8954,130 @@
         <v>201242227</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="0" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O137" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P137" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q137" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
+      </c>
+      <c r="R137" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="O138" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P138" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q138" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
+      </c>
+      <c r="R138" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="O139" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P139" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q139" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
+      </c>
+      <c r="R139" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="O140" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P140" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q140" s="0" t="s">
-        <v>833</v>
+        <v>834</v>
+      </c>
+      <c r="R140" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H141" s="0" t="n">
         <v>1292052</v>
@@ -8668,27 +9091,30 @@
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="O141" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="P141" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="Q141" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="R141" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H142" s="0" t="n">
         <v>1292124</v>
@@ -8702,27 +9128,30 @@
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="O142" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="P142" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="Q142" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="R142" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G143" s="1" t="n">
         <v>30240</v>
@@ -8731,7 +9160,7 @@
         <v>644898</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="J143" s="0" t="n">
         <v>243420613</v>
@@ -8740,17 +9169,20 @@
         <v>556151692</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="M143" s="2"/>
       <c r="O143" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="P143" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="Q143" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="R143" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
